--- a/Excel-XLSX/UN-BEN.xlsx
+++ b/Excel-XLSX/UN-BEN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="803">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IR5Dhd</t>
+    <t>1hGoO8</t>
   </si>
   <si>
     <t>1969</t>
@@ -2340,13 +2340,13 @@
     <t>537</t>
   </si>
   <si>
-    <t>5396</t>
-  </si>
-  <si>
-    <t>3225</t>
-  </si>
-  <si>
-    <t>1228</t>
+    <t>8609</t>
+  </si>
+  <si>
+    <t>5152</t>
+  </si>
+  <si>
+    <t>1271</t>
   </si>
   <si>
     <t>539</t>
@@ -2376,18 +2376,30 @@
     <t>547</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LEB</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
     <t>548</t>
   </si>
   <si>
     <t>549</t>
   </si>
   <si>
-    <t>675</t>
-  </si>
-  <si>
     <t>550</t>
   </si>
   <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
     <t>551</t>
   </si>
   <si>
@@ -2406,10 +2418,10 @@
     <t>556</t>
   </si>
   <si>
-    <t>4716</t>
-  </si>
-  <si>
     <t>557</t>
+  </si>
+  <si>
+    <t>4717</t>
   </si>
   <si>
     <t>558</t>
@@ -39229,7 +39241,7 @@
         <v>50</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P536" s="2" t="s">
         <v>33</v>
@@ -39433,7 +39445,7 @@
         <v>776</v>
       </c>
       <c r="O539" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P539" s="2" t="s">
         <v>33</v>
@@ -39498,10 +39510,10 @@
         <v>31</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="O540" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="P540" s="2" t="s">
         <v>33</v>
@@ -39566,7 +39578,7 @@
         <v>31</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="O541" s="2" t="s">
         <v>244</v>
@@ -39702,10 +39714,10 @@
         <v>31</v>
       </c>
       <c r="N543" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="O543" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P543" s="2" t="s">
         <v>33</v>
@@ -40018,16 +40030,16 @@
         <v>770</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>115</v>
+        <v>786</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>116</v>
+        <v>787</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>116</v>
+        <v>788</v>
       </c>
       <c r="J548" s="2" t="s">
         <v>29</v>
@@ -40042,10 +40054,10 @@
         <v>31</v>
       </c>
       <c r="N548" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P548" s="2" t="s">
         <v>33</v>
@@ -40080,22 +40092,22 @@
         <v>22</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>562</v>
+        <v>115</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>563</v>
+        <v>116</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>563</v>
+        <v>116</v>
       </c>
       <c r="J549" s="2" t="s">
         <v>29</v>
@@ -40110,10 +40122,10 @@
         <v>31</v>
       </c>
       <c r="N549" s="2" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P549" s="2" t="s">
         <v>33</v>
@@ -40148,22 +40160,22 @@
         <v>22</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>350</v>
+        <v>562</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>351</v>
+        <v>563</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>352</v>
+        <v>563</v>
       </c>
       <c r="J550" s="2" t="s">
         <v>29</v>
@@ -40178,10 +40190,10 @@
         <v>31</v>
       </c>
       <c r="N550" s="2" t="s">
-        <v>613</v>
+        <v>204</v>
       </c>
       <c r="O550" s="2" t="s">
-        <v>788</v>
+        <v>132</v>
       </c>
       <c r="P550" s="2" t="s">
         <v>33</v>
@@ -40216,22 +40228,22 @@
         <v>22</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="J551" s="2" t="s">
         <v>29</v>
@@ -40246,10 +40258,10 @@
         <v>31</v>
       </c>
       <c r="N551" s="2" t="s">
-        <v>55</v>
+        <v>792</v>
       </c>
       <c r="O551" s="2" t="s">
-        <v>317</v>
+        <v>793</v>
       </c>
       <c r="P551" s="2" t="s">
         <v>33</v>
@@ -40284,22 +40296,22 @@
         <v>22</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>579</v>
+        <v>26</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>580</v>
+        <v>27</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>580</v>
+        <v>28</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>29</v>
@@ -40314,10 +40326,10 @@
         <v>31</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O552" s="2" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="P552" s="2" t="s">
         <v>33</v>
@@ -40352,22 +40364,22 @@
         <v>22</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>119</v>
+        <v>579</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="J553" s="2" t="s">
         <v>29</v>
@@ -40382,10 +40394,10 @@
         <v>31</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O553" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P553" s="2" t="s">
         <v>33</v>
@@ -40420,22 +40432,22 @@
         <v>22</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>357</v>
+        <v>118</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>29</v>
@@ -40450,7 +40462,7 @@
         <v>31</v>
       </c>
       <c r="N554" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O554" s="2" t="s">
         <v>50</v>
@@ -40488,22 +40500,22 @@
         <v>22</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>125</v>
+        <v>360</v>
       </c>
       <c r="J555" s="2" t="s">
         <v>29</v>
@@ -40518,10 +40530,10 @@
         <v>31</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="P555" s="2" t="s">
         <v>33</v>
@@ -40556,22 +40568,22 @@
         <v>22</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>374</v>
+        <v>122</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>604</v>
+        <v>123</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>605</v>
+        <v>124</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>605</v>
+        <v>125</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>29</v>
@@ -40586,10 +40598,10 @@
         <v>31</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O556" s="2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="P556" s="2" t="s">
         <v>33</v>
@@ -40624,22 +40636,22 @@
         <v>22</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>89</v>
+        <v>374</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>90</v>
+        <v>604</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>91</v>
+        <v>605</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>92</v>
+        <v>605</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>29</v>
@@ -40654,10 +40666,10 @@
         <v>31</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>796</v>
+        <v>149</v>
       </c>
       <c r="O557" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="P557" s="2" t="s">
         <v>33</v>
@@ -40692,22 +40704,22 @@
         <v>22</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>607</v>
+        <v>90</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>608</v>
+        <v>91</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>608</v>
+        <v>92</v>
       </c>
       <c r="J558" s="2" t="s">
         <v>29</v>
@@ -40722,10 +40734,10 @@
         <v>31</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>63</v>
+        <v>801</v>
       </c>
       <c r="O558" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P558" s="2" t="s">
         <v>33</v>
@@ -40760,7 +40772,7 @@
         <v>22</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>770</v>
@@ -40793,7 +40805,7 @@
         <v>82</v>
       </c>
       <c r="O559" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P559" s="2" t="s">
         <v>33</v>
